--- a/diseaseNetwork/2018-07-25_link_file.xlsx
+++ b/diseaseNetwork/2018-07-25_link_file.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
   <si>
     <t xml:space="preserve">ICD_code</t>
   </si>
   <si>
-    <t xml:space="preserve">gwas_code</t>
+    <t xml:space="preserve">study_code</t>
   </si>
   <si>
     <t xml:space="preserve">module</t>
@@ -26,18 +26,33 @@
     <t xml:space="preserve">initials-date</t>
   </si>
   <si>
+    <t xml:space="preserve">A23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lung_disease_severity_in_cystic_fibrosis_26417704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AllDiseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VV-CS-2018-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cystic Fibrosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rareDiseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LF-2018-08-015</t>
+  </si>
+  <si>
     <t xml:space="preserve">A30</t>
   </si>
   <si>
     <t xml:space="preserve">leprosy_27976721</t>
   </si>
   <si>
-    <t xml:space="preserve">AllDiseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VV-CS-2018-07-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">A30-A49</t>
   </si>
   <si>
@@ -212,6 +227,42 @@
     <t xml:space="preserve">D04</t>
   </si>
   <si>
+    <t xml:space="preserve">D55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6PD Deficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta Thalassemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sickle Cell Anemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D57.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanconi Anemia (FANCC related)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factor XI Deficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D68.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">E00-E07</t>
   </si>
   <si>
@@ -239,6 +290,15 @@
     <t xml:space="preserve">E05.0</t>
   </si>
   <si>
+    <t xml:space="preserve">E07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendred Syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E07.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">E10</t>
   </si>
   <si>
@@ -254,6 +314,12 @@
     <t xml:space="preserve">E11</t>
   </si>
   <si>
+    <t xml:space="preserve">E16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familial Hyperinsulinism (ABCC8 related)</t>
+  </si>
+  <si>
     <t xml:space="preserve">E20-E35</t>
   </si>
   <si>
@@ -275,15 +341,120 @@
     <t xml:space="preserve">E66</t>
   </si>
   <si>
+    <t xml:space="preserve">E70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenylketonuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyrosinemia Type I</t>
+  </si>
+  <si>
     <t xml:space="preserve">E70-E90</t>
   </si>
   <si>
-    <t xml:space="preserve">lung_disease_severity_in_cystic_fibrosis_26417704</t>
+    <t xml:space="preserve">E70.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E70.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maple Syrup Urine Disease Type 1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycogen Storage Disease Type 1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycogen Storage Disease Type 1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hereditary Fructose Intolerance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Hyperoxaluria Type 2 (PH2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E74.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E74.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canavan Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaucher Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucolipidosis IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuronal Ceroid Lipofuscinosis (CLN5 related)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuronal Ceroid Lipofuscinosis (PPT1 related)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niemann Pick Disease Type A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tay Sachs Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E75.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E75.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E75.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E78.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familial Hypercholesterolemia Type B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemochromatosis (HFE related)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E83.1</t>
   </si>
   <si>
     <t xml:space="preserve">E84</t>
   </si>
   <si>
+    <t xml:space="preserve">Familial Dysautonomia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTR Related Familial Amyloid Polyneuropathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 1 Antitrypsin Deficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E88.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">F00-F09</t>
   </si>
   <si>
@@ -449,6 +620,15 @@
     <t xml:space="preserve">G30.1</t>
   </si>
   <si>
+    <t xml:space="preserve">G31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leigh Syndrome, French Canadian Type (LSFC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G31.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">G35</t>
   </si>
   <si>
@@ -503,6 +683,33 @@
     <t xml:space="preserve">G70.0</t>
   </si>
   <si>
+    <t xml:space="preserve">G71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limb girdle Muscular Dystrophy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G71.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familial Mediterranean Fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6148_4_ukbiobank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukbiobank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H26</t>
+  </si>
+  <si>
     <t xml:space="preserve">H30-H36</t>
   </si>
   <si>
@@ -665,6 +872,12 @@
     <t xml:space="preserve">thrombosis_26908601</t>
   </si>
   <si>
+    <t xml:space="preserve">28223407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precisionMedicine</t>
+  </si>
+  <si>
     <t xml:space="preserve">I71</t>
   </si>
   <si>
@@ -830,6 +1043,18 @@
     <t xml:space="preserve">K90.0</t>
   </si>
   <si>
+    <t xml:space="preserve">L10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usher Syndrome Type III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usher Syndrome Type I (PCDH15 related)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L10.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">L20</t>
   </si>
   <si>
@@ -920,30 +1145,39 @@
     <t xml:space="preserve">M10</t>
   </si>
   <si>
+    <t xml:space="preserve">systemic_lupus_erythematosus_27399966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M15-M19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M30-M36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemic_sclerosis_21750679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M32</t>
+  </si>
+  <si>
     <t xml:space="preserve">ankylosing_spondylitis_23749187</t>
   </si>
   <si>
-    <t xml:space="preserve">M15-M19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M30-M36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">systemic_lupus_erythematosus_27399966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">systemic_sclerosis_21750679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M32</t>
-  </si>
-  <si>
     <t xml:space="preserve">M34</t>
   </si>
   <si>
+    <t xml:space="preserve">M35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhizomelic Chondrodysplasia Punctata Type 1 (RCDP1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M35.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">M40-M54</t>
   </si>
   <si>
@@ -1053,6 +1287,33 @@
   </si>
   <si>
     <t xml:space="preserve">Q54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autosomal Recessive Polycystic Kidney Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junctional Epidermolysis Bullosa (LAMB3 related)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sjgren Larsson Syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zellweger Syndrome Spectrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q87.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q87.8</t>
   </si>
   <si>
     <t xml:space="preserve">R50-R69</t>
@@ -1459,24 +1720,24 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1487,10 +1748,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1501,10 +1762,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1515,10 +1776,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1529,10 +1790,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1543,10 +1804,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1557,10 +1818,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1571,10 +1832,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -1585,10 +1846,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1599,10 +1860,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1613,10 +1874,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1627,10 +1888,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1641,10 +1902,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1655,10 +1916,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1669,10 +1930,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1683,10 +1944,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1697,10 +1958,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1711,10 +1972,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1725,10 +1986,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1739,10 +2000,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1753,10 +2014,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -1767,10 +2028,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1781,10 +2042,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1795,10 +2056,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1809,10 +2070,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1823,10 +2084,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1837,10 +2098,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1851,10 +2112,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1865,10 +2126,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1879,10 +2140,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1893,10 +2154,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1907,10 +2168,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1921,10 +2182,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1935,10 +2196,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1949,10 +2210,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1963,10 +2224,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1977,10 +2238,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1991,10 +2252,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -2005,10 +2266,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2019,10 +2280,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -2033,10 +2294,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -2047,10 +2308,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -2061,10 +2322,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -2075,10 +2336,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -2089,10 +2350,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -2103,10 +2364,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -2117,10 +2378,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2131,10 +2392,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -2145,10 +2406,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -2159,10 +2420,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -2173,10 +2434,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -2187,10 +2448,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -2201,10 +2462,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -2215,10 +2476,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -2229,10 +2490,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -2243,10 +2504,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -2257,10 +2518,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -2271,10 +2532,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -2285,10 +2546,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -2299,10 +2560,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -2313,10 +2574,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -2327,10 +2588,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -2341,10 +2602,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -2355,10 +2616,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -2369,10 +2630,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -2383,10 +2644,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -2397,10 +2658,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -2411,10 +2672,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -2425,10 +2686,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -2439,10 +2700,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -2453,10 +2714,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -2467,10 +2728,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -2481,10 +2742,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -2495,10 +2756,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -2509,10 +2770,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -2523,10 +2784,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -2537,10 +2798,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -2551,108 +2812,108 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -2663,10 +2924,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -2677,10 +2938,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -2691,10 +2952,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -2705,10 +2966,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2719,21 +2980,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
         <v>85</v>
@@ -2747,38 +3008,38 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2789,10 +3050,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2803,10 +3064,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2817,38 +3078,38 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -2859,10 +3120,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -2873,10 +3134,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -2887,10 +3148,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2901,10 +3162,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
@@ -2915,38 +3176,38 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
@@ -2957,402 +3218,402 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B127" t="s">
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B129" t="s">
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B130" t="s">
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B131" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B132" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
@@ -3363,10 +3624,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
@@ -3377,10 +3638,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
@@ -3391,24 +3652,24 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
@@ -3419,10 +3680,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
@@ -3433,10 +3694,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
@@ -3447,10 +3708,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
@@ -3461,10 +3722,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
@@ -3475,10 +3736,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
@@ -3489,10 +3750,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C148" t="s">
         <v>6</v>
@@ -3503,10 +3764,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
@@ -3517,10 +3778,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
@@ -3531,10 +3792,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C151" t="s">
         <v>6</v>
@@ -3545,10 +3806,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C152" t="s">
         <v>6</v>
@@ -3559,10 +3820,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C153" t="s">
         <v>6</v>
@@ -3573,10 +3834,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
@@ -3587,10 +3848,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
@@ -3601,24 +3862,24 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
@@ -3629,10 +3890,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
@@ -3643,10 +3904,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
@@ -3657,10 +3918,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
@@ -3671,10 +3932,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
@@ -3685,10 +3946,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
@@ -3699,10 +3960,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
@@ -3713,10 +3974,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
@@ -3727,10 +3988,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -3741,10 +4002,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
@@ -3755,24 +4016,24 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B168" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
@@ -3783,10 +4044,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B169" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
@@ -3797,10 +4058,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B170" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
@@ -3811,10 +4072,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
@@ -3825,10 +4086,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
@@ -3839,10 +4100,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
@@ -3853,10 +4114,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
@@ -3867,10 +4128,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C175" t="s">
         <v>6</v>
@@ -3881,10 +4142,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
@@ -3895,10 +4156,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B177" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
@@ -3909,10 +4170,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B178" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
@@ -3923,10 +4184,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
@@ -3937,10 +4198,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
@@ -3951,10 +4212,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
@@ -3965,10 +4226,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -3979,10 +4240,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B183" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
@@ -3993,10 +4254,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -4007,38 +4268,38 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -4049,24 +4310,24 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
       </c>
       <c r="D188" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -4077,10 +4338,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -4091,10 +4352,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B191" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
@@ -4105,10 +4366,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B192" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
@@ -4119,10 +4380,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B193" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
@@ -4133,10 +4394,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B194" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -4147,10 +4408,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
@@ -4161,10 +4422,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
@@ -4175,24 +4436,24 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="B197" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
       </c>
       <c r="D197" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -4203,24 +4464,24 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B200" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
@@ -4231,10 +4492,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -4245,10 +4506,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -4259,80 +4520,80 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B203" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B204" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B208" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -4343,10 +4604,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B209" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
@@ -4357,24 +4618,24 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B210" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
       </c>
       <c r="D210" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="B211" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
@@ -4385,10 +4646,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B212" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
@@ -4399,10 +4660,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B213" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
@@ -4413,10 +4674,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="B214" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
@@ -4427,10 +4688,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B215" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
@@ -4441,10 +4702,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="B216" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -4455,10 +4716,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B217" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -4469,10 +4730,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B218" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
@@ -4483,10 +4744,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B219" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
@@ -4497,10 +4758,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B220" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
@@ -4511,10 +4772,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B221" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
@@ -4525,10 +4786,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B222" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
@@ -4539,10 +4800,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B223" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
@@ -4553,10 +4814,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B224" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
@@ -4567,10 +4828,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B225" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -4581,10 +4842,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B226" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
@@ -4595,10 +4856,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B227" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
@@ -4609,10 +4870,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B228" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
@@ -4623,10 +4884,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B229" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
@@ -4637,10 +4898,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B230" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
@@ -4651,10 +4912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B231" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
@@ -4665,10 +4926,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B232" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
@@ -4679,10 +4940,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B233" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
@@ -4693,10 +4954,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B234" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
@@ -4707,10 +4968,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B235" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
@@ -4721,24 +4982,24 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B236" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
       </c>
       <c r="D236" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B237" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
@@ -4749,10 +5010,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B238" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
@@ -4763,10 +5024,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B239" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
@@ -4777,10 +5038,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B240" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
@@ -4791,10 +5052,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B241" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C241" t="s">
         <v>6</v>
@@ -4805,10 +5066,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B242" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
@@ -4819,10 +5080,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B243" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
@@ -4833,10 +5094,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B244" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
@@ -4847,24 +5108,24 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B245" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
       </c>
       <c r="D245" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B246" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
@@ -4875,10 +5136,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B247" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
@@ -4889,10 +5150,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B248" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
@@ -4903,24 +5164,24 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B249" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C249" t="s">
         <v>6</v>
       </c>
       <c r="D249" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B250" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
@@ -4931,10 +5192,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B251" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C251" t="s">
         <v>6</v>
@@ -4945,10 +5206,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B252" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C252" t="s">
         <v>6</v>
@@ -4959,10 +5220,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B253" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C253" t="s">
         <v>6</v>
@@ -4973,10 +5234,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B254" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C254" t="s">
         <v>6</v>
@@ -4987,10 +5248,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B255" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
@@ -5001,10 +5262,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B256" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
@@ -5015,10 +5276,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B257" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C257" t="s">
         <v>6</v>
@@ -5029,38 +5290,38 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B258" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="D258" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B259" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B260" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
@@ -5071,10 +5332,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B261" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
@@ -5085,10 +5346,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B262" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C262" t="s">
         <v>6</v>
@@ -5099,10 +5360,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B263" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="C263" t="s">
         <v>6</v>
@@ -5113,10 +5374,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B264" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C264" t="s">
         <v>6</v>
@@ -5127,10 +5388,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B265" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="C265" t="s">
         <v>6</v>
@@ -5141,10 +5402,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B266" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C266" t="s">
         <v>6</v>
@@ -5155,10 +5416,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B267" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
@@ -5169,10 +5430,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B268" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C268" t="s">
         <v>6</v>
@@ -5183,10 +5444,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B269" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
@@ -5197,10 +5458,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B270" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
@@ -5211,10 +5472,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B271" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
@@ -5225,10 +5486,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B272" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C272" t="s">
         <v>6</v>
@@ -5239,10 +5500,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B273" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C273" t="s">
         <v>6</v>
@@ -5253,10 +5514,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B274" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C274" t="s">
         <v>6</v>
@@ -5267,10 +5528,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B275" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C275" t="s">
         <v>6</v>
@@ -5281,10 +5542,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="B276" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C276" t="s">
         <v>6</v>
@@ -5295,10 +5556,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B277" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C277" t="s">
         <v>6</v>
@@ -5309,24 +5570,24 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B278" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
       </c>
       <c r="D278" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B279" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
@@ -5337,24 +5598,24 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B280" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B281" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
@@ -5365,10 +5626,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B282" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
@@ -5379,10 +5640,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B283" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
@@ -5393,10 +5654,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B284" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C284" t="s">
         <v>6</v>
@@ -5407,10 +5668,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B285" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C285" t="s">
         <v>6</v>
@@ -5421,10 +5682,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B286" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="C286" t="s">
         <v>6</v>
@@ -5435,10 +5696,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B287" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C287" t="s">
         <v>6</v>
@@ -5449,10 +5710,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="B288" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="C288" t="s">
         <v>6</v>
@@ -5463,10 +5724,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B289" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C289" t="s">
         <v>6</v>
@@ -5477,10 +5738,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B290" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C290" t="s">
         <v>6</v>
@@ -5491,10 +5752,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="B291" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="C291" t="s">
         <v>6</v>
@@ -5505,10 +5766,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B292" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C292" t="s">
         <v>6</v>
@@ -5519,10 +5780,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B293" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="C293" t="s">
         <v>6</v>
@@ -5533,10 +5794,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B294" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
@@ -5547,10 +5808,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B295" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C295" t="s">
         <v>6</v>
@@ -5561,10 +5822,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B296" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C296" t="s">
         <v>6</v>
@@ -5575,10 +5836,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B297" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C297" t="s">
         <v>6</v>
@@ -5589,24 +5850,24 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B298" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
       </c>
       <c r="D298" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B299" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C299" t="s">
         <v>6</v>
@@ -5617,10 +5878,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B300" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
@@ -5631,10 +5892,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B301" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
@@ -5645,10 +5906,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B302" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="C302" t="s">
         <v>6</v>
@@ -5659,10 +5920,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B303" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="C303" t="s">
         <v>6</v>
@@ -5673,10 +5934,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B304" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C304" t="s">
         <v>6</v>
@@ -5687,66 +5948,66 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B305" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C305" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D305" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B306" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C306" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B307" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C307" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D307" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B308" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D308" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B309" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C309" t="s">
         <v>6</v>
@@ -5757,10 +6018,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B310" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C310" t="s">
         <v>6</v>
@@ -5771,10 +6032,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B311" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C311" t="s">
         <v>6</v>
@@ -5785,10 +6046,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B312" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
@@ -5799,10 +6060,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B313" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C313" t="s">
         <v>6</v>
@@ -5813,10 +6074,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="B314" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C314" t="s">
         <v>6</v>
@@ -5827,10 +6088,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B315" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C315" t="s">
         <v>6</v>
@@ -5841,10 +6102,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B316" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C316" t="s">
         <v>6</v>
@@ -5855,10 +6116,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B317" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C317" t="s">
         <v>6</v>
@@ -5869,10 +6130,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B318" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C318" t="s">
         <v>6</v>
@@ -5883,10 +6144,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B319" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C319" t="s">
         <v>6</v>
@@ -5897,10 +6158,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B320" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C320" t="s">
         <v>6</v>
@@ -5911,10 +6172,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B321" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C321" t="s">
         <v>6</v>
@@ -5925,10 +6186,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B322" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C322" t="s">
         <v>6</v>
@@ -5939,10 +6200,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B323" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C323" t="s">
         <v>6</v>
@@ -5953,10 +6214,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B324" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C324" t="s">
         <v>6</v>
@@ -5967,10 +6228,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B325" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C325" t="s">
         <v>6</v>
@@ -5981,10 +6242,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B326" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C326" t="s">
         <v>6</v>
@@ -5995,10 +6256,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B327" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C327" t="s">
         <v>6</v>
@@ -6009,15 +6270,869 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B328" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C328" t="s">
         <v>6</v>
       </c>
       <c r="D328" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>370</v>
+      </c>
+      <c r="B329" t="s">
+        <v>371</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>370</v>
+      </c>
+      <c r="B330" t="s">
+        <v>372</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>373</v>
+      </c>
+      <c r="B331" t="s">
+        <v>374</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>375</v>
+      </c>
+      <c r="B332" t="s">
+        <v>371</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>375</v>
+      </c>
+      <c r="B333" t="s">
+        <v>374</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>376</v>
+      </c>
+      <c r="B334" t="s">
+        <v>377</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>378</v>
+      </c>
+      <c r="B335" t="s">
+        <v>372</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>379</v>
+      </c>
+      <c r="B336" t="s">
+        <v>372</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>380</v>
+      </c>
+      <c r="B337" t="s">
+        <v>377</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>380</v>
+      </c>
+      <c r="B338" t="s">
+        <v>381</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>382</v>
+      </c>
+      <c r="B339" t="s">
+        <v>383</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>384</v>
+      </c>
+      <c r="B340" t="s">
+        <v>381</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>385</v>
+      </c>
+      <c r="B341" t="s">
+        <v>386</v>
+      </c>
+      <c r="C341" t="s">
+        <v>9</v>
+      </c>
+      <c r="D341" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>387</v>
+      </c>
+      <c r="B342" t="s">
+        <v>386</v>
+      </c>
+      <c r="C342" t="s">
+        <v>9</v>
+      </c>
+      <c r="D342" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>388</v>
+      </c>
+      <c r="B343" t="s">
+        <v>383</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>388</v>
+      </c>
+      <c r="B344" t="s">
+        <v>389</v>
+      </c>
+      <c r="C344" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>390</v>
+      </c>
+      <c r="B345" t="s">
+        <v>371</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>391</v>
+      </c>
+      <c r="B346" t="s">
+        <v>383</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>392</v>
+      </c>
+      <c r="B347" t="s">
+        <v>389</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>393</v>
+      </c>
+      <c r="B348" t="s">
+        <v>389</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>394</v>
+      </c>
+      <c r="B349" t="s">
+        <v>395</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>396</v>
+      </c>
+      <c r="B350" t="s">
+        <v>395</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>397</v>
+      </c>
+      <c r="B351" t="s">
+        <v>395</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>398</v>
+      </c>
+      <c r="B352" t="s">
+        <v>395</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>399</v>
+      </c>
+      <c r="B353" t="s">
+        <v>400</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>401</v>
+      </c>
+      <c r="B354" t="s">
+        <v>400</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>401</v>
+      </c>
+      <c r="B355" t="s">
+        <v>402</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>403</v>
+      </c>
+      <c r="B356" t="s">
+        <v>400</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>404</v>
+      </c>
+      <c r="B357" t="s">
+        <v>402</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>405</v>
+      </c>
+      <c r="B358" t="s">
+        <v>402</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>406</v>
+      </c>
+      <c r="B359" t="s">
+        <v>407</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>408</v>
+      </c>
+      <c r="B360" t="s">
+        <v>407</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>409</v>
+      </c>
+      <c r="B361" t="s">
+        <v>410</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>411</v>
+      </c>
+      <c r="B362" t="s">
+        <v>410</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>412</v>
+      </c>
+      <c r="B363" t="s">
+        <v>413</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>414</v>
+      </c>
+      <c r="B364" t="s">
+        <v>413</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>415</v>
+      </c>
+      <c r="B365" t="s">
+        <v>413</v>
+      </c>
+      <c r="C365" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>416</v>
+      </c>
+      <c r="B366" t="s">
+        <v>417</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>418</v>
+      </c>
+      <c r="B367" t="s">
+        <v>419</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>420</v>
+      </c>
+      <c r="B368" t="s">
+        <v>419</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>421</v>
+      </c>
+      <c r="B369" t="s">
+        <v>419</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>422</v>
+      </c>
+      <c r="B370" t="s">
+        <v>423</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>424</v>
+      </c>
+      <c r="B371" t="s">
+        <v>423</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>425</v>
+      </c>
+      <c r="B372" t="s">
+        <v>426</v>
+      </c>
+      <c r="C372" t="s">
+        <v>9</v>
+      </c>
+      <c r="D372" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>427</v>
+      </c>
+      <c r="B373" t="s">
+        <v>428</v>
+      </c>
+      <c r="C373" t="s">
+        <v>9</v>
+      </c>
+      <c r="D373" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>429</v>
+      </c>
+      <c r="B374" t="s">
+        <v>430</v>
+      </c>
+      <c r="C374" t="s">
+        <v>9</v>
+      </c>
+      <c r="D374" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>429</v>
+      </c>
+      <c r="B375" t="s">
+        <v>431</v>
+      </c>
+      <c r="C375" t="s">
+        <v>9</v>
+      </c>
+      <c r="D375" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>432</v>
+      </c>
+      <c r="B376" t="s">
+        <v>430</v>
+      </c>
+      <c r="C376" t="s">
+        <v>9</v>
+      </c>
+      <c r="D376" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>433</v>
+      </c>
+      <c r="B377" t="s">
+        <v>431</v>
+      </c>
+      <c r="C377" t="s">
+        <v>9</v>
+      </c>
+      <c r="D377" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>434</v>
+      </c>
+      <c r="B378" t="s">
+        <v>435</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>436</v>
+      </c>
+      <c r="B379" t="s">
+        <v>435</v>
+      </c>
+      <c r="C379" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>437</v>
+      </c>
+      <c r="B380" t="s">
+        <v>435</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>438</v>
+      </c>
+      <c r="B381" t="s">
+        <v>439</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>440</v>
+      </c>
+      <c r="B382" t="s">
+        <v>439</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>441</v>
+      </c>
+      <c r="B383" t="s">
+        <v>439</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>442</v>
+      </c>
+      <c r="B384" t="s">
+        <v>443</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>442</v>
+      </c>
+      <c r="B385" t="s">
+        <v>444</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>445</v>
+      </c>
+      <c r="B386" t="s">
+        <v>443</v>
+      </c>
+      <c r="C386" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>446</v>
+      </c>
+      <c r="B387" t="s">
+        <v>443</v>
+      </c>
+      <c r="C387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>447</v>
+      </c>
+      <c r="B388" t="s">
+        <v>444</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>448</v>
+      </c>
+      <c r="B389" t="s">
+        <v>444</v>
+      </c>
+      <c r="C389" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389" t="s">
         <v>7</v>
       </c>
     </row>
